--- a/x2023-07-Tahliye-ademKESICI 15-02-2024 - 9 41/mahkeme.xlsx
+++ b/x2023-07-Tahliye-ademKESICI 15-02-2024 - 9 41/mahkeme.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\x2023-07-Tahliye-ademKESICI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\x2023-07-Tahliye-ademKESICI 15-02-2024 - 9 41\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B24FC4-D96D-40B3-A1E1-5040241A0D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D56362-6850-4E5D-BA14-456B7448DAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{96728BF8-03FC-490C-A48F-7B62951E10FF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Tarih</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>Bilirkiş %10 artış hesaplamış temmerrüt oluşmadı diye rapor vermiş</t>
+  </si>
+  <si>
+    <t>9:41 te duruşma</t>
+  </si>
+  <si>
+    <t>ADEM KESİCİ ÇIKARILDI</t>
   </si>
 </sst>
 </file>
@@ -243,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -311,6 +317,8 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCEE689-086B-4F57-8877-62BE544AA30A}">
-  <dimension ref="B1:E46"/>
+  <dimension ref="B1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,6 +1088,21 @@
         <v>33</v>
       </c>
     </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="29">
+        <v>45337</v>
+      </c>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
